--- a/unprocessed_data/PolObser_Data_2021_raw.xlsx
+++ b/unprocessed_data/PolObser_Data_2021_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hien\Garden\MyGithub\phytometer-statsanalysis\unprocessed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BDF74-37EC-429A-8906-DD74E90994A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72368F4A-2390-4A2A-91F1-677FCBED5A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC520D8-F0F7-4BC8-8B78-E33632D6C794}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502EF74-4103-45D0-9091-0C056EC2FA51}">
   <dimension ref="A1:R307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
     <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
